--- a/sofaplayer/Bundesliga/SV Werder Bremen_stats.xlsx
+++ b/sofaplayer/Bundesliga/SV Werder Bremen_stats.xlsx
@@ -2103,16 +2103,16 @@
         <v>1005343</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6736842105263</v>
+        <v>6.665</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
-        <v>1133</v>
+        <v>1212</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2121,22 +2121,22 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3531</v>
+        <v>4.3762</v>
       </c>
       <c r="L5" t="n">
-        <v>283.25</v>
+        <v>303</v>
       </c>
       <c r="M5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>11.764705882353</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2169,40 +2169,40 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.48738958</v>
+        <v>0.58860858</v>
       </c>
       <c r="AB5" t="n">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AF5" t="n">
-        <v>74.390243902439</v>
+        <v>71.74721189591099</v>
       </c>
       <c r="AG5" t="n">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="AH5" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AJ5" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="n">
         <v>2</v>
       </c>
       <c r="AL5" t="n">
-        <v>22.222222222222</v>
+        <v>12.5</v>
       </c>
       <c r="AM5" t="n">
         <v>4</v>
@@ -2214,19 +2214,19 @@
         <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>10</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS5" t="n">
         <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>36.666666666667</v>
+        <v>37.5</v>
       </c>
       <c r="BA5" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BB5" t="n">
-        <v>47.368421052632</v>
+        <v>49</v>
       </c>
       <c r="BC5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="BD5" t="n">
-        <v>47.222222222222</v>
+        <v>49.350649350649</v>
       </c>
       <c r="BE5" t="n">
         <v>11</v>
@@ -2265,7 +2265,7 @@
         <v>47.826086956522</v>
       </c>
       <c r="BG5" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="BH5" t="n">
         <v>7</v>
@@ -2274,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="BJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK5" t="n">
         <v>1</v>
@@ -2289,28 +2289,28 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>126.8</v>
+        <v>133.3</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>4</v>
       </c>
       <c r="BT5" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW5" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CA5" t="n">
         <v>7</v>
@@ -2331,10 +2331,10 @@
         <v>8</v>
       </c>
       <c r="CC5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="CD5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CK5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL5" t="n">
         <v>0</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CT5" t="n">
         <v>16</v>
       </c>
       <c r="CU5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CV5" t="n">
         <v>12</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="DA5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="DB5" t="n">
-        <v>54.545454545455</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="DG5" t="n">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>815612</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8904761904762</v>
+        <v>6.8772727272727</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>1329</v>
+        <v>1419</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2477,22 +2477,22 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.9957</v>
+        <v>2.2923</v>
       </c>
       <c r="L6" t="n">
-        <v>664.5</v>
+        <v>709.5</v>
       </c>
       <c r="M6" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>6.8965517241379</v>
+        <v>6.0606060606061</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2519,40 +2519,40 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.24143559</v>
+        <v>2.52887059</v>
       </c>
       <c r="AB6" t="n">
-        <v>735</v>
+        <v>780</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="AF6" t="n">
-        <v>77.697841726619</v>
+        <v>77.200902934537</v>
       </c>
       <c r="AG6" t="n">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AI6" t="n">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AJ6" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AK6" t="n">
         <v>7</v>
@@ -2564,28 +2564,28 @@
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>27.777777777778</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>14</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2603,31 +2603,31 @@
         <v>58.620689655172</v>
       </c>
       <c r="BA6" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="BB6" t="n">
-        <v>50</v>
+        <v>49.079754601227</v>
       </c>
       <c r="BC6" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BD6" t="n">
-        <v>53.658536585366</v>
+        <v>52.272727272727</v>
       </c>
       <c r="BE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF6" t="n">
-        <v>34.48275862069</v>
+        <v>35.483870967742</v>
       </c>
       <c r="BG6" t="n">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="BH6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BI6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ6" t="n">
         <v>1</v>
@@ -2645,28 +2645,28 @@
         <v>2</v>
       </c>
       <c r="BO6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>144.7</v>
+        <v>151.3</v>
       </c>
       <c r="BR6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS6" t="n">
         <v>3</v>
       </c>
       <c r="BT6" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>3</v>
       </c>
       <c r="BZ6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CC6" t="n">
         <v>17</v>
@@ -2708,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CS6" t="n">
         <v>29</v>
       </c>
       <c r="CT6" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CU6" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="CV6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>19</v>
       </c>
       <c r="DA6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB6" t="n">
-        <v>37.931034482759</v>
+        <v>38.709677419355</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="DG6" t="n">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>1100836</v>
       </c>
       <c r="E7" t="n">
-        <v>6.9444444444444</v>
+        <v>6.9368421052632</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>861</v>
+        <v>906</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -2836,7 +2836,7 @@
         <v>1.1839</v>
       </c>
       <c r="L7" t="n">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M7" t="n">
         <v>14</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.5574631</v>
+        <v>1.6136198</v>
       </c>
       <c r="AB7" t="n">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="AC7" t="n">
         <v>2</v>
@@ -2893,28 +2893,28 @@
         <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="AF7" t="n">
-        <v>86.629526462396</v>
+        <v>87.105263157895</v>
       </c>
       <c r="AG7" t="n">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="AH7" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AI7" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AJ7" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>52.941176470588</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -2929,13 +2929,13 @@
         <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>63.157894736842</v>
+        <v>62.790697674419</v>
       </c>
       <c r="BA7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>54.471544715447</v>
+      </c>
+      <c r="BC7" t="n">
         <v>64</v>
       </c>
-      <c r="BB7" t="n">
-        <v>54.700854700855</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>61</v>
-      </c>
       <c r="BD7" t="n">
-        <v>59.223300970874</v>
+        <v>58.715596330275</v>
       </c>
       <c r="BE7" t="n">
         <v>3</v>
@@ -2977,7 +2977,7 @@
         <v>21.428571428571</v>
       </c>
       <c r="BG7" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="BH7" t="n">
         <v>3</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>125</v>
+        <v>131.8</v>
       </c>
       <c r="BR7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS7" t="n">
         <v>5</v>
       </c>
       <c r="BT7" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>17</v>
       </c>
       <c r="CC7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CD7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK7" t="n">
         <v>2</v>
@@ -3091,13 +3091,13 @@
         <v>14</v>
       </c>
       <c r="CS7" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CT7" t="n">
         <v>16</v>
       </c>
       <c r="CU7" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="CV7" t="n">
         <v>11</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DA7" t="n">
         <v>10</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="DG7" t="n">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>916176</v>
       </c>
       <c r="E8" t="n">
-        <v>6.5375</v>
+        <v>6.5764705882353</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>874</v>
+        <v>964</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9635</v>
+        <v>1.0616</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.05305545</v>
+        <v>1.08260945</v>
       </c>
       <c r="AB8" t="n">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,22 +3249,22 @@
         <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="AF8" t="n">
-        <v>82.79883381924201</v>
+        <v>82.642487046632</v>
       </c>
       <c r="AG8" t="n">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="AH8" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AJ8" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
@@ -3273,58 +3273,58 @@
         <v>52.380952380952</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.04347826087</v>
+        <v>14.814814814815</v>
       </c>
       <c r="AO8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AQ8" t="n">
         <v>4</v>
       </c>
       <c r="AR8" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY8" t="n">
         <v>6</v>
       </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BA8" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="BB8" t="n">
-        <v>46.218487394958</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BC8" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="BD8" t="n">
-        <v>48.039215686275</v>
+        <v>50.434782608696</v>
       </c>
       <c r="BE8" t="n">
         <v>6</v>
@@ -3333,19 +3333,19 @@
         <v>35.294117647059</v>
       </c>
       <c r="BG8" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="BH8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BJ8" t="n">
         <v>1</v>
       </c>
       <c r="BK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3357,49 +3357,49 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>104.6</v>
+        <v>111.8</v>
       </c>
       <c r="BR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ8" t="n">
         <v>9</v>
       </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>2</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>8</v>
-      </c>
       <c r="CA8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CB8" t="n">
         <v>14</v>
       </c>
       <c r="CC8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CD8" t="n">
         <v>10</v>
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CK8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL8" t="n">
         <v>0</v>
@@ -3447,13 +3447,13 @@
         <v>9</v>
       </c>
       <c r="CS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT8" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CU8" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="CV8" t="n">
         <v>11</v>
@@ -3471,10 +3471,10 @@
         <v>21</v>
       </c>
       <c r="DA8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="DB8" t="n">
-        <v>58.620689655172</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="DG8" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ8" t="n">
         <v>2266821</v>
@@ -3527,16 +3527,16 @@
         <v>830127</v>
       </c>
       <c r="E9" t="n">
-        <v>6.7238095238095</v>
+        <v>6.75</v>
       </c>
       <c r="F9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="n">
-        <v>1841</v>
+        <v>1931</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -3545,22 +3545,22 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1773</v>
+        <v>4.5918</v>
       </c>
       <c r="L9" t="n">
-        <v>920.5</v>
+        <v>965.5</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>6.0606060606061</v>
+        <v>5.5555555555556</v>
       </c>
       <c r="Q9" t="n">
         <v>2</v>
@@ -3593,61 +3593,61 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.1645267</v>
+        <v>6.4226267</v>
       </c>
       <c r="AB9" t="n">
-        <v>1339</v>
+        <v>1404</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>674</v>
+        <v>699</v>
       </c>
       <c r="AF9" t="n">
-        <v>76.158192090395</v>
+        <v>75.40453074433699</v>
       </c>
       <c r="AG9" t="n">
-        <v>885</v>
+        <v>927</v>
       </c>
       <c r="AH9" t="n">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AI9" t="n">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="AJ9" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="n">
-        <v>51.25</v>
+        <v>52.325581395349</v>
       </c>
       <c r="AM9" t="n">
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>22.222222222222</v>
+        <v>22.047244094488</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -3665,31 +3665,31 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>35</v>
+        <v>36.507936507937</v>
       </c>
       <c r="BA9" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="BB9" t="n">
-        <v>36.018957345972</v>
+        <v>37.946428571429</v>
       </c>
       <c r="BC9" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="BD9" t="n">
-        <v>38.461538461538</v>
+        <v>40.331491712707</v>
       </c>
       <c r="BE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF9" t="n">
-        <v>26.190476190476</v>
+        <v>27.906976744186</v>
       </c>
       <c r="BG9" t="n">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="BH9" t="n">
         <v>14</v>
@@ -3713,28 +3713,28 @@
         <v>3</v>
       </c>
       <c r="BO9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>141.2</v>
+        <v>148.5</v>
       </c>
       <c r="BR9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS9" t="n">
         <v>7</v>
       </c>
       <c r="BT9" t="n">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BW9" t="n">
         <v>3</v>
@@ -3746,19 +3746,19 @@
         <v>3</v>
       </c>
       <c r="BZ9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="CA9" t="n">
         <v>16</v>
       </c>
       <c r="CB9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CC9" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="CD9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CE9" t="n">
         <v>0</v>
@@ -3776,10 +3776,10 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CK9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="CS9" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="CT9" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="CU9" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="CV9" t="n">
         <v>31</v>
@@ -3824,13 +3824,13 @@
         <v>1</v>
       </c>
       <c r="CZ9" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="DA9" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="DB9" t="n">
-        <v>58.333333333333</v>
+        <v>60</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="DG9" t="n">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>830142</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6.98</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1643</v>
+        <v>1708</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3901,13 +3901,13 @@
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4375</v>
+        <v>3.5467</v>
       </c>
       <c r="L10" t="n">
-        <v>273.83333333333</v>
+        <v>284.66666666667</v>
       </c>
       <c r="M10" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N10" t="n">
         <v>12</v>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>18.75</v>
+        <v>17.647058823529</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.2134306</v>
+        <v>2.2440615</v>
       </c>
       <c r="AB10" t="n">
-        <v>1003</v>
+        <v>1043</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
@@ -3961,55 +3961,55 @@
         <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="AF10" t="n">
-        <v>76.329787234043</v>
+        <v>76.508344030809</v>
       </c>
       <c r="AG10" t="n">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="AH10" t="n">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="AI10" t="n">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AJ10" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AL10" t="n">
-        <v>46.067415730337</v>
+        <v>47.252747252747</v>
       </c>
       <c r="AM10" t="n">
         <v>5</v>
       </c>
       <c r="AN10" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>82</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT10" t="n">
         <v>31</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>78</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>29</v>
-      </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>1</v>
@@ -4027,28 +4027,28 @@
         <v>57.142857142857</v>
       </c>
       <c r="BA10" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="BB10" t="n">
-        <v>57.988165680473</v>
+        <v>57.954545454545</v>
       </c>
       <c r="BC10" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="BD10" t="n">
-        <v>56.140350877193</v>
+        <v>55.46218487395</v>
       </c>
       <c r="BE10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BF10" t="n">
-        <v>61.818181818182</v>
+        <v>63.157894736842</v>
       </c>
       <c r="BG10" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="BH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI10" t="n">
         <v>25</v>
@@ -4069,28 +4069,28 @@
         <v>3</v>
       </c>
       <c r="BO10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>133</v>
+        <v>139.6</v>
       </c>
       <c r="BR10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS10" t="n">
         <v>7</v>
       </c>
       <c r="BT10" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
@@ -4105,16 +4105,16 @@
         <v>25</v>
       </c>
       <c r="CA10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CB10" t="n">
         <v>9</v>
       </c>
       <c r="CC10" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="CD10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CK10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
@@ -4162,10 +4162,10 @@
         <v>14</v>
       </c>
       <c r="CT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CU10" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="CV10" t="n">
         <v>21</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="DA10" t="n">
         <v>23</v>
       </c>
       <c r="DB10" t="n">
-        <v>74.193548387097</v>
+        <v>69.69696969697</v>
       </c>
       <c r="DC10" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="DG10" t="n">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4239,130 +4239,130 @@
         <v>933398</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6857142857143</v>
+        <v>6.7125</v>
       </c>
       <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
+        <v>577</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0605</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.65003626</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>398</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
-        <v>512</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.009900000000000001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.45245726</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>369</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AF11" t="n">
-        <v>80.090497737557</v>
+        <v>80.08658008658</v>
       </c>
       <c r="AG11" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AH11" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AI11" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AJ11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
-        <v>33.333333333333</v>
+        <v>35</v>
       </c>
       <c r="AM11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>36.363636363636</v>
       </c>
       <c r="AO11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>7</v>
       </c>
-      <c r="AP11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>3</v>
-      </c>
       <c r="AR11" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AS11" t="n">
         <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4380,37 +4380,37 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB11" t="n">
-        <v>64.912280701754</v>
+        <v>63.492063492063</v>
       </c>
       <c r="BC11" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BD11" t="n">
-        <v>63.04347826087</v>
+        <v>62</v>
       </c>
       <c r="BE11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>69.230769230769</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>75</v>
+      </c>
+      <c r="BH11" t="n">
         <v>8</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>72.727272727273</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>68</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>7</v>
       </c>
       <c r="BI11" t="n">
         <v>13</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK11" t="n">
         <v>1</v>
@@ -4425,28 +4425,28 @@
         <v>1</v>
       </c>
       <c r="BO11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>46.8</v>
+        <v>53.7</v>
       </c>
       <c r="BR11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA11" t="n">
         <v>1</v>
@@ -4488,61 +4488,61 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
+        <v>13</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>11</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>23</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="DA11" t="n">
         <v>12</v>
       </c>
-      <c r="CK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>5</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>8</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>20</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>18</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>10</v>
-      </c>
       <c r="DB11" t="n">
-        <v>71.428571428571</v>
+        <v>75</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="DG11" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>1596105</v>
       </c>
       <c r="E12" t="n">
-        <v>6.5111111111111</v>
+        <v>6.5</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,10 +4661,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.44563357</v>
+        <v>0.46281837</v>
       </c>
       <c r="AB12" t="n">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AC12" t="n">
         <v>2</v>
@@ -4673,28 +4673,28 @@
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>77.397260273973</v>
+        <v>77.41935483871001</v>
       </c>
       <c r="AG12" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AH12" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AI12" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AK12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL12" t="n">
-        <v>35.294117647059</v>
+        <v>38.888888888889</v>
       </c>
       <c r="AM12" t="n">
         <v>2</v>
@@ -4712,13 +4712,13 @@
         <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
@@ -4742,13 +4742,13 @@
         <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>40</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
       </c>
       <c r="BD12" t="n">
-        <v>42.105263157895</v>
+        <v>38.095238095238</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BH12" t="n">
         <v>5</v>
@@ -4781,22 +4781,22 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>58.6</v>
+        <v>65</v>
       </c>
       <c r="BR12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="CB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12" t="n">
         <v>9</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
@@ -4877,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="CU12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CV12" t="n">
         <v>1</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DA12" t="n">
         <v>2</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="DG12" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>826171</v>
       </c>
       <c r="E13" t="n">
-        <v>6.83</v>
+        <v>6.7809523809524</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="n">
-        <v>1767</v>
+        <v>1857</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.26766412</v>
+        <v>1.30595692</v>
       </c>
       <c r="AB13" t="n">
-        <v>1285</v>
+        <v>1343</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,28 +5029,28 @@
         <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>868</v>
+        <v>903</v>
       </c>
       <c r="AF13" t="n">
-        <v>86.713286713287</v>
+        <v>86.910490856593</v>
       </c>
       <c r="AG13" t="n">
-        <v>1001</v>
+        <v>1039</v>
       </c>
       <c r="AH13" t="n">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="AI13" t="n">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="AJ13" t="n">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AK13" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL13" t="n">
-        <v>65.217391304348</v>
+        <v>65.591397849462</v>
       </c>
       <c r="AM13" t="n">
         <v>1</v>
@@ -5059,22 +5059,22 @@
         <v>12.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AP13" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AS13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT13" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -5083,40 +5083,40 @@
         <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
         <v>3</v>
       </c>
       <c r="AZ13" t="n">
-        <v>33.333333333333</v>
+        <v>30</v>
       </c>
       <c r="BA13" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="BB13" t="n">
-        <v>44.594594594595</v>
+        <v>44.871794871795</v>
       </c>
       <c r="BC13" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BD13" t="n">
-        <v>44.144144144144</v>
+        <v>44.067796610169</v>
       </c>
       <c r="BE13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BF13" t="n">
-        <v>45.945945945946</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BG13" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="BH13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BI13" t="n">
         <v>8</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -5137,22 +5137,22 @@
         <v>4</v>
       </c>
       <c r="BO13" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>136.6</v>
+        <v>142.4</v>
       </c>
       <c r="BR13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5179,10 +5179,10 @@
         <v>9</v>
       </c>
       <c r="CC13" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="CD13" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,10 +5200,10 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CK13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL13" t="n">
         <v>0</v>
@@ -5227,13 +5227,13 @@
         <v>9</v>
       </c>
       <c r="CS13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CT13" t="n">
         <v>8</v>
       </c>
       <c r="CU13" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="CV13" t="n">
         <v>20</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DA13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB13" t="n">
-        <v>36.842105263158</v>
+        <v>39.024390243902</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="DG13" t="n">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>905347</v>
       </c>
       <c r="E15" t="n">
-        <v>6.56</v>
+        <v>6.5571428571429</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
         <v>20</v>
       </c>
       <c r="H15" t="n">
-        <v>1745</v>
+        <v>1756</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5729,10 +5729,10 @@
         <v>4</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.04457138</v>
+        <v>2.0451739</v>
       </c>
       <c r="AB15" t="n">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5741,19 +5741,19 @@
         <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AF15" t="n">
-        <v>79.515151515152</v>
+        <v>79.518072289157</v>
       </c>
       <c r="AG15" t="n">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="AH15" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AI15" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AJ15" t="n">
         <v>195</v>
@@ -5762,7 +5762,7 @@
         <v>47</v>
       </c>
       <c r="AL15" t="n">
-        <v>39.166666666667</v>
+        <v>38.842975206612</v>
       </c>
       <c r="AM15" t="n">
         <v>16</v>
@@ -5780,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="AR15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>9</v>
@@ -5804,19 +5804,19 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41.666666666667</v>
+        <v>40</v>
       </c>
       <c r="BA15" t="n">
         <v>49</v>
       </c>
       <c r="BB15" t="n">
-        <v>46.666666666667</v>
+        <v>46.22641509434</v>
       </c>
       <c r="BC15" t="n">
         <v>39</v>
       </c>
       <c r="BD15" t="n">
-        <v>45.882352941176</v>
+        <v>45.348837209302</v>
       </c>
       <c r="BE15" t="n">
         <v>10</v>
@@ -5825,7 +5825,7 @@
         <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="BH15" t="n">
         <v>14</v>
@@ -5855,16 +5855,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>131.2</v>
+        <v>137.7</v>
       </c>
       <c r="BR15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS15" t="n">
         <v>4</v>
       </c>
       <c r="BT15" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
       <c r="CC15" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CD15" t="n">
         <v>29</v>
@@ -5939,13 +5939,13 @@
         <v>12</v>
       </c>
       <c r="CS15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CT15" t="n">
         <v>60</v>
       </c>
       <c r="CU15" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CV15" t="n">
         <v>10</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="DA15" t="n">
         <v>10</v>
@@ -5978,10 +5978,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="DG15" t="n">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>1797852</v>
       </c>
       <c r="E16" t="n">
-        <v>6.445</v>
+        <v>6.4428571428571</v>
       </c>
       <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
         <v>20</v>
       </c>
-      <c r="G16" t="n">
-        <v>19</v>
-      </c>
       <c r="H16" t="n">
-        <v>1672</v>
+        <v>1733</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0.6601</v>
       </c>
       <c r="L16" t="n">
-        <v>1672</v>
+        <v>1733</v>
       </c>
       <c r="M16" t="n">
         <v>6</v>
@@ -6085,10 +6085,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.42463465</v>
+        <v>0.431807</v>
       </c>
       <c r="AB16" t="n">
-        <v>1436</v>
+        <v>1458</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6097,28 +6097,28 @@
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="AF16" t="n">
-        <v>86.655546288574</v>
+        <v>86.502057613169</v>
       </c>
       <c r="AG16" t="n">
-        <v>1199</v>
+        <v>1215</v>
       </c>
       <c r="AH16" t="n">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="AI16" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AJ16" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="n">
         <v>54</v>
       </c>
       <c r="AL16" t="n">
-        <v>41.221374045802</v>
+        <v>40.909090909091</v>
       </c>
       <c r="AM16" t="n">
         <v>3</v>
@@ -6127,10 +6127,10 @@
         <v>27.272727272727</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -6139,10 +6139,10 @@
         <v>55</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6163,25 +6163,25 @@
         <v>71.428571428571</v>
       </c>
       <c r="BA16" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>49.242424242424</v>
+        <v>49.62962962963</v>
       </c>
       <c r="BC16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>50.746268656716</v>
+      </c>
+      <c r="BE16" t="n">
         <v>33</v>
       </c>
-      <c r="BD16" t="n">
-        <v>50.769230769231</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>32</v>
-      </c>
       <c r="BF16" t="n">
-        <v>47.761194029851</v>
+        <v>48.529411764706</v>
       </c>
       <c r="BG16" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BH16" t="n">
         <v>16</v>
@@ -6205,22 +6205,22 @@
         <v>3</v>
       </c>
       <c r="BO16" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>128.9</v>
+        <v>135.3</v>
       </c>
       <c r="BR16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS16" t="n">
         <v>1</v>
       </c>
       <c r="BT16" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
@@ -6247,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CD16" t="n">
         <v>29</v>
@@ -6268,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CK16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL16" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>11</v>
       </c>
       <c r="CU16" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CV16" t="n">
         <v>35</v>
@@ -6316,13 +6316,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DA16" t="n">
         <v>12</v>
       </c>
       <c r="DB16" t="n">
-        <v>54.545454545455</v>
+        <v>52.173913043478</v>
       </c>
       <c r="DC16" t="n">
         <v>1</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="DG16" t="n">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="DH16" t="n">
         <v>55</v>
@@ -6375,16 +6375,16 @@
         <v>1087043</v>
       </c>
       <c r="E17" t="n">
-        <v>6.3571428571429</v>
+        <v>6.35</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6441,10 +6441,10 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.4338646</v>
+        <v>0.43886534</v>
       </c>
       <c r="AB17" t="n">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -6453,28 +6453,28 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="n">
-        <v>80.349344978166</v>
+        <v>80.57851239669399</v>
       </c>
       <c r="AG17" t="n">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="AH17" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL17" t="n">
-        <v>22.727272727273</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>2</v>
@@ -6492,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS17" t="n">
         <v>4</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AU17" t="n">
         <v>1</v>
@@ -6522,13 +6522,13 @@
         <v>22</v>
       </c>
       <c r="BB17" t="n">
-        <v>55</v>
+        <v>53.658536585366</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
       </c>
       <c r="BD17" t="n">
-        <v>55.555555555556</v>
+        <v>53.571428571429</v>
       </c>
       <c r="BE17" t="n">
         <v>7</v>
@@ -6537,10 +6537,10 @@
         <v>53.846153846154</v>
       </c>
       <c r="BG17" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BH17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI17" t="n">
         <v>1</v>
@@ -6561,22 +6561,22 @@
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>44.5</v>
+        <v>50.8</v>
       </c>
       <c r="BR17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="CC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD17" t="n">
         <v>4</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK17" t="n">
         <v>2</v>
@@ -6657,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="CU17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV17" t="n">
         <v>6</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="DA17" t="n">
         <v>5</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="DG17" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6724,299 +6724,299 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Isaac Schmidt</t>
+          <t>Marco Friedl</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1015164</v>
+        <v>825771</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7083333333333</v>
+        <v>7.005</v>
       </c>
       <c r="F18" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1760</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6777</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1760</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.89111246</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1451</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>995</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>89.317773788151</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1114</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>580</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>415</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>161</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>57.971014492754</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7.1428571428571</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>86</v>
+      </c>
+      <c r="AS18" t="n">
         <v>12</v>
       </c>
-      <c r="G18" t="n">
+      <c r="AT18" t="n">
+        <v>109</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>438</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.9949</v>
-      </c>
-      <c r="L18" t="n">
-        <v>438</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="AZ18" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>46</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>62.162162162162</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>35</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>68.627450980392</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>158</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>35</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>119</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>92</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>51</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>31</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>4</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.6398205300000001</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>357</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="CS18" t="n">
         <v>7</v>
       </c>
-      <c r="AE18" t="n">
-        <v>178</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>79.82062780269101</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>223</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>76</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>102</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>59</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT18" t="n">
+      <c r="CT18" t="n">
         <v>14</v>
       </c>
-      <c r="AU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>60</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>30</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>54.545454545455</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>19</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>11</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>73.333333333333</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>72</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>80.5</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>45</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>10</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>3</v>
-      </c>
       <c r="CU18" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="CV18" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="DA18" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="DB18" t="n">
-        <v>72.727272727273</v>
+        <v>53.125</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>97</v>
+        <v>615</v>
       </c>
       <c r="DG18" t="n">
-        <v>126</v>
+        <v>499</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="DI18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2190066</v>
+        <v>2163131</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7080,341 +7080,341 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marco Friedl</t>
+          <t>Isaac Schmidt</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>825771</v>
+        <v>1015164</v>
       </c>
       <c r="E19" t="n">
-        <v>7.0210526315789</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>1670</v>
+        <v>463</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6777</v>
+        <v>0.9949</v>
       </c>
       <c r="L19" t="n">
-        <v>1670</v>
+        <v>463</v>
       </c>
       <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.71838833</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>383</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>189</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>79.07949790795</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>239</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>108</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>64</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.88259754</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1395</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>956</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>89.345794392523</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>553</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>403</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>158</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>59.541984732824</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7.1428571428571</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>24</v>
-      </c>
       <c r="AP19" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AQ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>33</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>48.888888888889</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>73.333333333333</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>80</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI19" t="n">
         <v>3</v>
       </c>
-      <c r="AR19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC19" t="n">
         <v>11</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="CD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>27</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>8</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
         <v>104</v>
       </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>76</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>64.406779661017</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>42</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>60.869565217391</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>34</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>69.387755102041</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>153</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>32</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>19</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>114</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>87</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>49</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>14</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>42</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>131</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>16</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>588</v>
-      </c>
       <c r="DG19" t="n">
-        <v>482</v>
+        <v>135</v>
       </c>
       <c r="DH19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="DI19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2163131</v>
+        <v>2190066</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -8155,16 +8155,16 @@
         <v>229544</v>
       </c>
       <c r="E22" t="n">
-        <v>6.3166666666667</v>
+        <v>6.2571428571429</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03475254</v>
+        <v>0.03517562</v>
       </c>
       <c r="AB22" t="n">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8233,19 +8233,19 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AF22" t="n">
-        <v>86.28571428571399</v>
+        <v>85.567010309278</v>
       </c>
       <c r="AG22" t="n">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="AH22" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="AI22" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ22" t="n">
         <v>7</v>
@@ -8254,7 +8254,7 @@
         <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>52.380952380952</v>
+        <v>47.826086956522</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8263,19 +8263,19 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
         <v>7</v>
       </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>6</v>
-      </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>23</v>
@@ -8299,16 +8299,16 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>60</v>
+        <v>58.620689655172</v>
       </c>
       <c r="BC22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
-        <v>55</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BE22" t="n">
         <v>4</v>
@@ -8317,19 +8317,19 @@
         <v>80</v>
       </c>
       <c r="BG22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BH22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
       </c>
       <c r="BK22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL22" t="n">
         <v>2</v>
@@ -8341,22 +8341,22 @@
         <v>0</v>
       </c>
       <c r="BO22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>37.9</v>
+        <v>43.8</v>
       </c>
       <c r="BR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CD22" t="n">
         <v>7</v>
@@ -8404,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="CU22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CV22" t="n">
         <v>1</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="DA22" t="n">
         <v>3</v>
       </c>
       <c r="DB22" t="n">
-        <v>42.857142857143</v>
+        <v>37.5</v>
       </c>
       <c r="DC22" t="n">
         <v>2</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="DG22" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="DH22" t="n">
         <v>2</v>
@@ -8867,16 +8867,16 @@
         <v>1083390</v>
       </c>
       <c r="E24" t="n">
-        <v>7.1842105263158</v>
+        <v>7.135</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -8931,10 +8931,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02530972</v>
+        <v>0.02636812</v>
       </c>
       <c r="AB24" t="n">
-        <v>844</v>
+        <v>888</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8943,28 +8943,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="AF24" t="n">
-        <v>84.11669367909199</v>
+        <v>83.513097072419</v>
       </c>
       <c r="AG24" t="n">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="AH24" t="n">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AI24" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="n">
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AL24" t="n">
-        <v>48.022598870056</v>
+        <v>47.894736842105</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8982,19 +8982,19 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>0</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
-        <v>84.615384615385</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BC24" t="n">
         <v>2</v>
@@ -9021,19 +9021,19 @@
         <v>50</v>
       </c>
       <c r="BE24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF24" t="n">
         <v>100</v>
       </c>
       <c r="BG24" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
@@ -9045,28 +9045,28 @@
         <v>0</v>
       </c>
       <c r="BM24" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="BN24" t="n">
         <v>3</v>
       </c>
       <c r="BO24" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>136.5</v>
+        <v>142.7</v>
       </c>
       <c r="BR24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9093,10 +9093,10 @@
         <v>1</v>
       </c>
       <c r="CC24" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="CD24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9105,28 +9105,28 @@
         <v>0</v>
       </c>
       <c r="CG24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH24" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="CI24" t="n">
         <v>21</v>
       </c>
       <c r="CJ24" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CK24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CL24" t="n">
+        <v>13</v>
+      </c>
+      <c r="CM24" t="n">
         <v>12</v>
       </c>
-      <c r="CM24" t="n">
-        <v>11</v>
-      </c>
       <c r="CN24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CO24" t="n">
         <v>20</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9177,16 +9177,16 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DF24" t="n">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="DG24" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="DH24" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>0.2666</v>
+        <v>-0.1921</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/SV Werder Bremen_stats.xlsx
+++ b/sofaplayer/Bundesliga/SV Werder Bremen_stats.xlsx
@@ -2103,7 +2103,7 @@
         <v>1005343</v>
       </c>
       <c r="E5" t="n">
-        <v>6.665</v>
+        <v>6.66</v>
       </c>
       <c r="F5" t="n">
         <v>21</v>
@@ -2121,7 +2121,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3762</v>
+        <v>4.4029</v>
       </c>
       <c r="L5" t="n">
         <v>303</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.58860858</v>
+        <v>0.5893695799999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ5" t="n">
-        <v>37.5</v>
+        <v>35.483870967742</v>
       </c>
       <c r="BA5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BB5" t="n">
-        <v>49</v>
+        <v>48.484848484848</v>
       </c>
       <c r="BC5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BD5" t="n">
-        <v>49.350649350649</v>
+        <v>48.684210526316</v>
       </c>
       <c r="BE5" t="n">
         <v>11</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>133.3</v>
+        <v>133.2</v>
       </c>
       <c r="BR5" t="n">
         <v>20</v>
@@ -2379,7 +2379,7 @@
         <v>8</v>
       </c>
       <c r="CS5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="CT5" t="n">
         <v>16</v>
@@ -2459,7 +2459,7 @@
         <v>815612</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8772727272727</v>
+        <v>6.8818181818182</v>
       </c>
       <c r="F6" t="n">
         <v>22</v>
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2923</v>
+        <v>2.2361</v>
       </c>
       <c r="L6" t="n">
         <v>709.5</v>
@@ -2525,10 +2525,10 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.52887059</v>
+        <v>2.53990959</v>
       </c>
       <c r="AB6" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2537,10 +2537,10 @@
         <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF6" t="n">
-        <v>77.200902934537</v>
+        <v>77.42663656884901</v>
       </c>
       <c r="AG6" t="n">
         <v>443</v>
@@ -2549,10 +2549,10 @@
         <v>108</v>
       </c>
       <c r="AI6" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AJ6" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK6" t="n">
         <v>7</v>
@@ -2597,22 +2597,22 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>58.620689655172</v>
+        <v>60</v>
       </c>
       <c r="BA6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>49.079754601227</v>
+        <v>49.390243902439</v>
       </c>
       <c r="BC6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BD6" t="n">
-        <v>52.272727272727</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BE6" t="n">
         <v>11</v>
@@ -2621,7 +2621,7 @@
         <v>35.483870967742</v>
       </c>
       <c r="BG6" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BH6" t="n">
         <v>21</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>151.3</v>
+        <v>151.4</v>
       </c>
       <c r="BR6" t="n">
         <v>22</v>
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="BT6" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>28</v>
       </c>
       <c r="CS6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CT6" t="n">
         <v>55</v>
@@ -2881,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.6136198</v>
+        <v>1.613539</v>
       </c>
       <c r="AB7" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AC7" t="n">
         <v>2</v>
@@ -2914,7 +2914,7 @@
         <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>52.941176470588</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>21.428571428571</v>
       </c>
       <c r="BG7" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BH7" t="n">
         <v>3</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DA7" t="n">
         <v>10</v>
@@ -3171,7 +3171,7 @@
         <v>916176</v>
       </c>
       <c r="E8" t="n">
-        <v>6.5764705882353</v>
+        <v>6.5705882352941</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.0616</v>
+        <v>1.033</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.08260945</v>
+        <v>1.08096045</v>
       </c>
       <c r="AB8" t="n">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AC8" t="n">
         <v>1</v>
@@ -3249,22 +3249,22 @@
         <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF8" t="n">
-        <v>82.642487046632</v>
+        <v>82.519280205656</v>
       </c>
       <c r="AG8" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AH8" t="n">
         <v>154</v>
       </c>
       <c r="AI8" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AJ8" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
         <v>11</v>
@@ -3276,7 +3276,7 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>14.814814814815</v>
+        <v>15.384615384615</v>
       </c>
       <c r="AO8" t="n">
         <v>8</v>
@@ -3285,10 +3285,10 @@
         <v>35</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="BR8" t="n">
         <v>17</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3399,10 +3399,10 @@
         <v>14</v>
       </c>
       <c r="CC8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CD8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="CT8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CU8" t="n">
         <v>68</v>
@@ -3489,7 +3489,7 @@
         <v>182</v>
       </c>
       <c r="DG8" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3527,7 +3527,7 @@
         <v>830127</v>
       </c>
       <c r="E9" t="n">
-        <v>6.75</v>
+        <v>6.7636363636364</v>
       </c>
       <c r="F9" t="n">
         <v>22</v>
@@ -3545,7 +3545,7 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.5918</v>
+        <v>4.4906</v>
       </c>
       <c r="L9" t="n">
         <v>965.5</v>
@@ -3593,7 +3593,7 @@
         <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.4226267</v>
+        <v>6.4410427</v>
       </c>
       <c r="AB9" t="n">
         <v>1404</v>
@@ -3644,7 +3644,7 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS9" t="n">
         <v>15</v>
@@ -3719,7 +3719,7 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>148.5</v>
+        <v>148.8</v>
       </c>
       <c r="BR9" t="n">
         <v>22</v>
@@ -3827,10 +3827,10 @@
         <v>86</v>
       </c>
       <c r="DA9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="DB9" t="n">
-        <v>60</v>
+        <v>56.666666666667</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5467</v>
+        <v>3.5465</v>
       </c>
       <c r="L10" t="n">
         <v>284.66666666667</v>
@@ -3949,10 +3949,10 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.2440615</v>
+        <v>2.2440736</v>
       </c>
       <c r="AB10" t="n">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AC10" t="n">
         <v>4</v>
@@ -3961,16 +3961,16 @@
         <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF10" t="n">
-        <v>76.508344030809</v>
+        <v>76.478149100257</v>
       </c>
       <c r="AG10" t="n">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AH10" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AI10" t="n">
         <v>278</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="DG10" t="n">
         <v>416</v>
@@ -4239,7 +4239,7 @@
         <v>933398</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7125</v>
+        <v>6.725</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0605</v>
+        <v>0.0592</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.65003626</v>
+        <v>0.63423926</v>
       </c>
       <c r="AB11" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4320,10 +4320,10 @@
         <v>185</v>
       </c>
       <c r="AF11" t="n">
-        <v>80.08658008658</v>
+        <v>79.741379310345</v>
       </c>
       <c r="AG11" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AH11" t="n">
         <v>83</v>
@@ -4383,10 +4383,10 @@
         <v>40</v>
       </c>
       <c r="BA11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>63.492063492063</v>
+        <v>65.079365079365</v>
       </c>
       <c r="BC11" t="n">
         <v>31</v>
@@ -4395,13 +4395,13 @@
         <v>62</v>
       </c>
       <c r="BE11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF11" t="n">
-        <v>69.230769230769</v>
+        <v>76.92307692307701</v>
       </c>
       <c r="BG11" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BH11" t="n">
         <v>8</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>53.7</v>
+        <v>53.8</v>
       </c>
       <c r="BR11" t="n">
         <v>8</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4521,10 +4521,10 @@
         <v>11</v>
       </c>
       <c r="CU11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CV11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>104</v>
       </c>
       <c r="DG11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.46281837</v>
+        <v>0.46281827</v>
       </c>
       <c r="AB12" t="n">
         <v>199</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.30595692</v>
+        <v>1.30527372</v>
       </c>
       <c r="AB13" t="n">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5029,16 +5029,16 @@
         <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AF13" t="n">
-        <v>86.910490856593</v>
+        <v>86.897880539499</v>
       </c>
       <c r="AG13" t="n">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="AH13" t="n">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AI13" t="n">
         <v>409</v>
@@ -5068,7 +5068,7 @@
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS13" t="n">
         <v>28</v>
@@ -5179,10 +5179,10 @@
         <v>9</v>
       </c>
       <c r="CC13" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CD13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="DG13" t="n">
         <v>489</v>
@@ -5663,7 +5663,7 @@
         <v>905347</v>
       </c>
       <c r="E15" t="n">
-        <v>6.5571428571429</v>
+        <v>6.552380952381</v>
       </c>
       <c r="F15" t="n">
         <v>21</v>
@@ -5732,7 +5732,7 @@
         <v>2.0451739</v>
       </c>
       <c r="AB15" t="n">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5825,7 +5825,7 @@
         <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BH15" t="n">
         <v>14</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>137.7</v>
+        <v>137.6</v>
       </c>
       <c r="BR15" t="n">
         <v>21</v>
@@ -6019,7 +6019,7 @@
         <v>1797852</v>
       </c>
       <c r="E16" t="n">
-        <v>6.4428571428571</v>
+        <v>6.447619047619</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.431807</v>
+        <v>0.43180164</v>
       </c>
       <c r="AB16" t="n">
         <v>1458</v>
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>135.3</v>
+        <v>135.4</v>
       </c>
       <c r="BR16" t="n">
         <v>21</v>
@@ -6731,7 +6731,7 @@
         <v>825771</v>
       </c>
       <c r="E18" t="n">
-        <v>7.005</v>
+        <v>7.01</v>
       </c>
       <c r="F18" t="n">
         <v>20</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.89111246</v>
+        <v>0.8904564</v>
       </c>
       <c r="AB18" t="n">
         <v>1451</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>140.1</v>
+        <v>140.2</v>
       </c>
       <c r="BR18" t="n">
         <v>20</v>
@@ -7087,7 +7087,7 @@
         <v>1015164</v>
       </c>
       <c r="E19" t="n">
-        <v>6.7</v>
+        <v>6.6923076923077</v>
       </c>
       <c r="F19" t="n">
         <v>13</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.71838833</v>
+        <v>0.68696183</v>
       </c>
       <c r="AB19" t="n">
         <v>383</v>
@@ -7165,10 +7165,10 @@
         <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="n">
-        <v>79.07949790795</v>
+        <v>78.661087866109</v>
       </c>
       <c r="AG19" t="n">
         <v>239</v>
@@ -7177,16 +7177,16 @@
         <v>81</v>
       </c>
       <c r="AI19" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AJ19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="n">
         <v>5</v>
       </c>
       <c r="AL19" t="n">
-        <v>55.555555555556</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>1</v>
@@ -7249,7 +7249,7 @@
         <v>73.333333333333</v>
       </c>
       <c r="BG19" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BH19" t="n">
         <v>7</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="BR19" t="n">
         <v>13</v>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>11</v>
       </c>
       <c r="CD19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CE19" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="DA19" t="n">
         <v>8</v>
@@ -8221,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.03517562</v>
+        <v>0.03518422</v>
       </c>
       <c r="AB22" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8233,16 +8233,16 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF22" t="n">
-        <v>85.567010309278</v>
+        <v>85.641025641026</v>
       </c>
       <c r="AG22" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AH22" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AI22" t="n">
         <v>40</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="DG22" t="n">
         <v>56</v>
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02636812</v>
+        <v>0.02623273</v>
       </c>
       <c r="AB24" t="n">
         <v>888</v>
@@ -8961,10 +8961,10 @@
         <v>13</v>
       </c>
       <c r="AK24" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL24" t="n">
-        <v>47.894736842105</v>
+        <v>48.167539267016</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DA24" t="n">
         <v>0</v>
@@ -9200,7 +9200,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>-0.1921</v>
+        <v>-0.2269</v>
       </c>
     </row>
   </sheetData>
